--- a/docs/UI_0.1.xlsx
+++ b/docs/UI_0.1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="135" windowWidth="15600" windowHeight="7605"/>
+    <workbookView xWindow="600" yWindow="135" windowWidth="14760" windowHeight="7605" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Flow" sheetId="4" r:id="rId1"/>
@@ -340,10 +340,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>买手已经购买完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>结束时间：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -465,14 +461,6 @@
   </si>
   <si>
     <t>确认发货</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>该订单已完结</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完结时间：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -621,6 +609,18 @@
   </si>
   <si>
     <t>cancelpurchase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买手已经购买完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该订单已完结</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完结时间：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -11226,7 +11226,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
@@ -11240,21 +11240,21 @@
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.15">
       <c r="I2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="J2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.15">
       <c r="G3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.15">
@@ -11266,16 +11266,16 @@
       <c r="E4" s="23"/>
       <c r="F4" s="23"/>
       <c r="G4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="H4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="I4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="J4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.15">
@@ -11287,16 +11287,16 @@
       <c r="E5" s="23"/>
       <c r="F5" s="23"/>
       <c r="G5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="I5" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J5" t="s">
+        <v>114</v>
+      </c>
+      <c r="K5" t="s">
         <v>117</v>
-      </c>
-      <c r="K5" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.15">
@@ -11308,7 +11308,7 @@
       <c r="E6" s="23"/>
       <c r="F6" s="23"/>
       <c r="G6" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.15">
@@ -11320,13 +11320,13 @@
       <c r="E7" s="23"/>
       <c r="F7" s="23"/>
       <c r="G7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="H7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="I7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.15">
@@ -11334,13 +11334,13 @@
         <v>52</v>
       </c>
       <c r="H8" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="I8" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="J8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.15">
@@ -11348,13 +11348,13 @@
         <v>53</v>
       </c>
       <c r="H9" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="I9" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="J9" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.15">
@@ -11366,13 +11366,13 @@
       <c r="E10" s="23"/>
       <c r="F10" s="23"/>
       <c r="H10" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="I10" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="J10" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.15">
@@ -11384,7 +11384,7 @@
       <c r="E11" s="23"/>
       <c r="F11" s="23"/>
       <c r="I11" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.15">
@@ -11448,7 +11448,7 @@
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.15">
       <c r="E23" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -11461,8 +11461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:CE92"/>
   <sheetViews>
-    <sheetView topLeftCell="AV49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BI73" sqref="BI73"/>
+    <sheetView topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S82" sqref="S82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12319,7 +12319,7 @@
     </row>
     <row r="61" spans="2:83" x14ac:dyDescent="0.15">
       <c r="AA61" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AF61" s="14"/>
       <c r="AG61" s="15"/>
@@ -12328,16 +12328,16 @@
         <v>46</v>
       </c>
       <c r="BA61" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BF61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BS61" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BX61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="62" spans="2:83" x14ac:dyDescent="0.15">
@@ -12372,7 +12372,7 @@
         <v>29</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="BA64" s="4"/>
       <c r="BS64" s="4"/>
@@ -12400,10 +12400,10 @@
     </row>
     <row r="66" spans="2:83" x14ac:dyDescent="0.15">
       <c r="B66" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AA66" s="21"/>
       <c r="AB66" s="8"/>
@@ -12461,7 +12461,7 @@
         <v>21</v>
       </c>
       <c r="AA68" s="29" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AB68" s="11"/>
       <c r="AC68" s="11"/>
@@ -12478,10 +12478,10 @@
     <row r="69" spans="2:83" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B69" s="4"/>
       <c r="BA69" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="BS69" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="70" spans="2:83" x14ac:dyDescent="0.15">
@@ -12497,7 +12497,7 @@
         <v>41</v>
       </c>
       <c r="BA71" s="33" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="BB71" s="33"/>
       <c r="BC71" s="33"/>
@@ -12578,10 +12578,10 @@
     </row>
     <row r="84" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B84" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="86" spans="2:14" x14ac:dyDescent="0.15">
@@ -12661,8 +12661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:CT107"/>
   <sheetViews>
-    <sheetView topLeftCell="BC79" workbookViewId="0">
-      <selection activeCell="BX100" sqref="BX100"/>
+    <sheetView topLeftCell="BD63" workbookViewId="0">
+      <selection activeCell="AE85" sqref="AE85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12687,10 +12687,10 @@
         <v>72</v>
       </c>
       <c r="BM2" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="CH2" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="2:93" ht="20.25" x14ac:dyDescent="0.15">
@@ -13772,13 +13772,13 @@
         <v>29</v>
       </c>
       <c r="BR61" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="CH61" s="4" t="s">
         <v>29</v>
       </c>
       <c r="CM61" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="62" spans="2:98" x14ac:dyDescent="0.15">
@@ -13805,16 +13805,16 @@
     </row>
     <row r="63" spans="2:98" x14ac:dyDescent="0.15">
       <c r="BM63" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BR63" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="CH63" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="CM63" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="64" spans="2:98" x14ac:dyDescent="0.15">
@@ -13822,19 +13822,19 @@
         <v>29</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AA64" s="4" t="s">
         <v>29</v>
       </c>
       <c r="AF64" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AS64" s="4" t="s">
         <v>29</v>
       </c>
       <c r="AX64" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="BM64" s="4"/>
       <c r="CH64" s="4"/>
@@ -13858,22 +13858,22 @@
     </row>
     <row r="66" spans="2:98" x14ac:dyDescent="0.15">
       <c r="B66" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AA66" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AF66" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AS66" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AX66" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="BM66" s="4"/>
       <c r="CH66" s="4"/>
@@ -13968,10 +13968,10 @@
         <v>41</v>
       </c>
       <c r="BM71" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="CH71" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="72" spans="2:98" x14ac:dyDescent="0.15">
@@ -14017,7 +14017,7 @@
     </row>
     <row r="73" spans="2:98" x14ac:dyDescent="0.15">
       <c r="BM73" s="33" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="BN73" s="33"/>
       <c r="BO73" s="33"/>
@@ -14040,10 +14040,10 @@
     </row>
     <row r="74" spans="2:98" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B74" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA74" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="AA74" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="AS74" s="2" t="s">
         <v>68</v>
@@ -14051,7 +14051,7 @@
     </row>
     <row r="75" spans="2:98" x14ac:dyDescent="0.15">
       <c r="BM75" s="33" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="BN75" s="33"/>
       <c r="BO75" s="33"/>
@@ -14066,14 +14066,14 @@
       <c r="BX75" s="33"/>
       <c r="BY75" s="33"/>
       <c r="CH75" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="CL75" s="9" t="s">
         <v>83</v>
-      </c>
-      <c r="CL75" s="9" t="s">
-        <v>84</v>
       </c>
       <c r="CM75" s="9"/>
       <c r="CO75" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CP75" s="9"/>
     </row>
@@ -14094,10 +14094,10 @@
       <c r="M76" s="33"/>
       <c r="N76" s="33"/>
       <c r="AA76" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="AF76" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="AS76" s="4" t="s">
         <v>70</v>
@@ -14108,15 +14108,15 @@
     </row>
     <row r="78" spans="2:98" ht="20.25" x14ac:dyDescent="0.15">
       <c r="AS78" s="2" t="s">
-        <v>73</v>
+        <v>141</v>
       </c>
     </row>
     <row r="80" spans="2:98" x14ac:dyDescent="0.15">
       <c r="AS80" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AX80" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="AX80" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="81" spans="45:98" x14ac:dyDescent="0.15">
@@ -14124,15 +14124,15 @@
     </row>
     <row r="82" spans="45:98" x14ac:dyDescent="0.15">
       <c r="AS82" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="AX82" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="AX82" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="84" spans="45:98" x14ac:dyDescent="0.15">
       <c r="AS84" s="25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="85" spans="45:98" x14ac:dyDescent="0.15">
@@ -14152,25 +14152,25 @@
     </row>
     <row r="86" spans="45:98" x14ac:dyDescent="0.15">
       <c r="CH86" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="CM86" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="CN86" s="9"/>
       <c r="CP86" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CQ86" s="9"/>
     </row>
     <row r="87" spans="45:98" x14ac:dyDescent="0.15">
       <c r="AS87" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="95" spans="45:98" x14ac:dyDescent="0.15">
       <c r="CH95" s="33" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="CI95" s="33"/>
       <c r="CJ95" s="33"/>
@@ -14187,11 +14187,18 @@
     </row>
     <row r="107" spans="45:45" x14ac:dyDescent="0.15">
       <c r="AS107" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="BR53:BS53"/>
+    <mergeCell ref="CM53:CN53"/>
+    <mergeCell ref="CH21:CT21"/>
+    <mergeCell ref="B21:N21"/>
+    <mergeCell ref="AA21:AM21"/>
+    <mergeCell ref="AS21:BE21"/>
+    <mergeCell ref="BM21:BY21"/>
     <mergeCell ref="BM75:BY75"/>
     <mergeCell ref="CH95:CT95"/>
     <mergeCell ref="G56:H56"/>
@@ -14199,13 +14206,6 @@
     <mergeCell ref="AX56:AY56"/>
     <mergeCell ref="B76:N76"/>
     <mergeCell ref="BM73:BY73"/>
-    <mergeCell ref="BR53:BS53"/>
-    <mergeCell ref="CM53:CN53"/>
-    <mergeCell ref="CH21:CT21"/>
-    <mergeCell ref="B21:N21"/>
-    <mergeCell ref="AA21:AM21"/>
-    <mergeCell ref="AS21:BE21"/>
-    <mergeCell ref="BM21:BY21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14217,8 +14217,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:BA80"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="AA75" sqref="AA75"/>
+    <sheetView tabSelected="1" topLeftCell="P61" workbookViewId="0">
+      <selection activeCell="P85" sqref="P84:P85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -14232,13 +14232,13 @@
   <sheetData>
     <row r="2" spans="2:48" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B2" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="T2" s="12" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="AO2" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="2:48" ht="20.25" x14ac:dyDescent="0.15">
@@ -14924,19 +14924,19 @@
         <v>29</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="T64" s="4" t="s">
         <v>29</v>
       </c>
       <c r="Y64" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AO64" s="4" t="s">
         <v>29</v>
       </c>
       <c r="AT64" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="65" spans="2:53" x14ac:dyDescent="0.15">
@@ -14946,22 +14946,22 @@
     </row>
     <row r="66" spans="2:53" x14ac:dyDescent="0.15">
       <c r="B66" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="T66" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y66" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AO66" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AT66" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="67" spans="2:53" x14ac:dyDescent="0.15">
@@ -15059,13 +15059,13 @@
     </row>
     <row r="74" spans="2:53" x14ac:dyDescent="0.15">
       <c r="B74" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="T74" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="T74" s="4" t="s">
-        <v>96</v>
-      </c>
       <c r="AO74" s="33" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AP74" s="33"/>
       <c r="AQ74" s="33"/>
@@ -15082,27 +15082,27 @@
     </row>
     <row r="76" spans="2:53" x14ac:dyDescent="0.15">
       <c r="T76" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AO76" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AQ76" s="14"/>
       <c r="AR76" s="15"/>
       <c r="AS76" s="16"/>
       <c r="AU76" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="78" spans="2:53" x14ac:dyDescent="0.15">
       <c r="T78" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y78" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="Y78" s="1" t="s">
-        <v>99</v>
-      </c>
       <c r="AO78" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AS78" s="14"/>
       <c r="AT78" s="15"/>
@@ -15115,7 +15115,7 @@
     </row>
     <row r="80" spans="2:53" x14ac:dyDescent="0.15">
       <c r="T80" s="33" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="U80" s="33"/>
       <c r="V80" s="33"/>
@@ -15150,7 +15150,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:N58"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="W57" sqref="V57:W57"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -15161,7 +15163,7 @@
   <sheetData>
     <row r="2" spans="2:9" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B2" s="12" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="20.25" x14ac:dyDescent="0.15">
@@ -15391,15 +15393,15 @@
     </row>
     <row r="56" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B56" s="4" t="s">
-        <v>105</v>
+        <v>142</v>
       </c>
     </row>
     <row r="58" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B58" s="4" t="s">
-        <v>106</v>
+        <v>143</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/docs/UI_0.1.xlsx
+++ b/docs/UI_0.1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="135" windowWidth="14760" windowHeight="7605" activeTab="3"/>
+    <workbookView xWindow="600" yWindow="135" windowWidth="14760" windowHeight="7605" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Flow" sheetId="4" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="代购中" sheetId="2" r:id="rId3"/>
     <sheet name="发货中" sheetId="3" r:id="rId4"/>
     <sheet name="完成" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="148">
   <si>
     <t>自然堂凝时鲜颜肌活乳液</t>
   </si>
@@ -623,6 +624,22 @@
     <t>完结时间：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>实际总价：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代购国家：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -757,7 +774,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -879,13 +896,93 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -988,6 +1085,54 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -7941,14 +8086,14 @@
     <xdr:from>
       <xdr:col>85</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>97</xdr:col>
       <xdr:colOff>146957</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7985,13 +8130,13 @@
     <xdr:from>
       <xdr:col>85</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>89</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10929,6 +11074,756 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1047750" y="657225"/>
+          <a:ext cx="952500" cy="933450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>21058</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>5455</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>179200</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>169451</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="流程图: 联系 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="421108" y="2920105"/>
+          <a:ext cx="158142" cy="163996"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>81374</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>12179</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>40733</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>2240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="流程图: 联系 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="881474" y="2926829"/>
+          <a:ext cx="159384" cy="161511"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>162056</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>6586</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>121416</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>621</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="流程图: 联系 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1762256" y="2921236"/>
+          <a:ext cx="159385" cy="165485"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>48923</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>9938</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>8283</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>173934</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="流程图: 联系 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2249198" y="2924588"/>
+          <a:ext cx="159385" cy="163996"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>165652</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>165642</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>32304</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>7047</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="矩形 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="365677" y="3080292"/>
+          <a:ext cx="266702" cy="527205"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>发布中</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>24847</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>157360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>90285</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>170215</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="矩形 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="824947" y="3072010"/>
+          <a:ext cx="265463" cy="527205"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>代购中</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>91108</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>157362</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>90491</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>163692</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="矩形 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1291258" y="3072012"/>
+          <a:ext cx="199408" cy="520680"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>转运</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>107674</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>165643</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>173113</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>7048</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="矩形 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1707874" y="3080293"/>
+          <a:ext cx="265464" cy="527205"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>收货中</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>165645</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>57151</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="矩形 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2190749" y="3080295"/>
+          <a:ext cx="266702" cy="501105"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>完成</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>92710</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>13085</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="流程图: 联系 24"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1333500" y="2933700"/>
+          <a:ext cx="159385" cy="165485"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>172571</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>16249</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="圆角矩形标注 51"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16640175" y="5276850"/>
+          <a:ext cx="1534646" cy="740149"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -109726"/>
+            <a:gd name="adj2" fmla="val -9663"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>一旦竞标失败，就不允许发送私信</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -11461,8 +12356,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:CE92"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S82" sqref="S82"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BB84" sqref="BB84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11498,6 +12393,11 @@
       </c>
       <c r="BS11" s="2" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:78" x14ac:dyDescent="0.15">
+      <c r="S12" s="1" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="13" spans="2:78" x14ac:dyDescent="0.15">
@@ -12661,8 +13561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:CT107"/>
   <sheetViews>
-    <sheetView topLeftCell="BD63" workbookViewId="0">
-      <selection activeCell="AE85" sqref="AE85"/>
+    <sheetView topLeftCell="BC75" workbookViewId="0">
+      <selection activeCell="CH98" sqref="CH98:CT98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -14066,16 +14966,16 @@
       <c r="BX75" s="33"/>
       <c r="BY75" s="33"/>
       <c r="CH75" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="CL75" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="CM75" s="9"/>
-      <c r="CO75" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="CP75" s="9"/>
+        <v>144</v>
+      </c>
+      <c r="CL75" s="34"/>
+      <c r="CM75" s="34"/>
+      <c r="CN75" s="34"/>
+      <c r="CO75" s="34"/>
+      <c r="CP75" s="34"/>
+      <c r="CQ75" s="34"/>
+      <c r="CR75" s="34"/>
+      <c r="CS75" s="34"/>
     </row>
     <row r="76" spans="2:98" x14ac:dyDescent="0.15">
       <c r="B76" s="33" t="s">
@@ -14110,6 +15010,17 @@
       <c r="AS78" s="2" t="s">
         <v>141</v>
       </c>
+      <c r="CH78" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="CL78" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="CM78" s="9"/>
+      <c r="CO78" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="CP78" s="9"/>
     </row>
     <row r="80" spans="2:98" x14ac:dyDescent="0.15">
       <c r="AS80" s="4" t="s">
@@ -14119,10 +15030,10 @@
         <v>74</v>
       </c>
     </row>
-    <row r="81" spans="45:98" x14ac:dyDescent="0.15">
+    <row r="81" spans="45:95" x14ac:dyDescent="0.15">
       <c r="AS81" s="4"/>
     </row>
-    <row r="82" spans="45:98" x14ac:dyDescent="0.15">
+    <row r="82" spans="45:95" x14ac:dyDescent="0.15">
       <c r="AS82" s="4" t="s">
         <v>77</v>
       </c>
@@ -14130,12 +15041,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="84" spans="45:98" x14ac:dyDescent="0.15">
+    <row r="84" spans="45:95" x14ac:dyDescent="0.15">
       <c r="AS84" s="25" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="85" spans="45:98" x14ac:dyDescent="0.15">
+    <row r="85" spans="45:95" x14ac:dyDescent="0.15">
       <c r="AS85" s="7"/>
       <c r="AT85" s="8"/>
       <c r="AU85" s="8"/>
@@ -14150,48 +15061,56 @@
       <c r="BD85" s="8"/>
       <c r="BE85" s="8"/>
     </row>
-    <row r="86" spans="45:98" x14ac:dyDescent="0.15">
-      <c r="CH86" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="CM86" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="CN86" s="9"/>
-      <c r="CP86" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="CQ86" s="9"/>
-    </row>
-    <row r="87" spans="45:98" x14ac:dyDescent="0.15">
+    <row r="87" spans="45:95" x14ac:dyDescent="0.15">
       <c r="AS87" s="4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="95" spans="45:98" x14ac:dyDescent="0.15">
-      <c r="CH95" s="33" t="s">
+    <row r="89" spans="45:95" x14ac:dyDescent="0.15">
+      <c r="CH89" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CM89" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="CN89" s="9"/>
+      <c r="CP89" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="CQ89" s="9"/>
+    </row>
+    <row r="98" spans="45:98" x14ac:dyDescent="0.15">
+      <c r="CH98" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="CI95" s="33"/>
-      <c r="CJ95" s="33"/>
-      <c r="CK95" s="33"/>
-      <c r="CL95" s="33"/>
-      <c r="CM95" s="33"/>
-      <c r="CN95" s="33"/>
-      <c r="CO95" s="33"/>
-      <c r="CP95" s="33"/>
-      <c r="CQ95" s="33"/>
-      <c r="CR95" s="33"/>
-      <c r="CS95" s="33"/>
-      <c r="CT95" s="33"/>
-    </row>
-    <row r="107" spans="45:45" x14ac:dyDescent="0.15">
+      <c r="CI98" s="33"/>
+      <c r="CJ98" s="33"/>
+      <c r="CK98" s="33"/>
+      <c r="CL98" s="33"/>
+      <c r="CM98" s="33"/>
+      <c r="CN98" s="33"/>
+      <c r="CO98" s="33"/>
+      <c r="CP98" s="33"/>
+      <c r="CQ98" s="33"/>
+      <c r="CR98" s="33"/>
+      <c r="CS98" s="33"/>
+      <c r="CT98" s="33"/>
+    </row>
+    <row r="107" spans="45:98" x14ac:dyDescent="0.15">
       <c r="AS107" s="4" t="s">
         <v>84</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="15">
+    <mergeCell ref="BM75:BY75"/>
+    <mergeCell ref="CH98:CT98"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="AF56:AG56"/>
+    <mergeCell ref="AX56:AY56"/>
+    <mergeCell ref="B76:N76"/>
+    <mergeCell ref="BM73:BY73"/>
+    <mergeCell ref="CL75:CS75"/>
     <mergeCell ref="BR53:BS53"/>
     <mergeCell ref="CM53:CN53"/>
     <mergeCell ref="CH21:CT21"/>
@@ -14199,13 +15118,6 @@
     <mergeCell ref="AA21:AM21"/>
     <mergeCell ref="AS21:BE21"/>
     <mergeCell ref="BM21:BY21"/>
-    <mergeCell ref="BM75:BY75"/>
-    <mergeCell ref="CH95:CT95"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="AF56:AG56"/>
-    <mergeCell ref="AX56:AY56"/>
-    <mergeCell ref="B76:N76"/>
-    <mergeCell ref="BM73:BY73"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14215,10 +15127,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:BA80"/>
+  <dimension ref="B2:BA90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P61" workbookViewId="0">
-      <selection activeCell="P85" sqref="P84:P85"/>
+    <sheetView topLeftCell="P24" workbookViewId="0">
+      <selection activeCell="AR78" sqref="AR78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -15064,35 +15976,11 @@
       <c r="T74" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="AO74" s="33" t="s">
-        <v>103</v>
-      </c>
-      <c r="AP74" s="33"/>
-      <c r="AQ74" s="33"/>
-      <c r="AR74" s="33"/>
-      <c r="AS74" s="33"/>
-      <c r="AT74" s="33"/>
-      <c r="AU74" s="33"/>
-      <c r="AV74" s="33"/>
-      <c r="AW74" s="33"/>
-      <c r="AX74" s="33"/>
-      <c r="AY74" s="33"/>
-      <c r="AZ74" s="33"/>
-      <c r="BA74" s="33"/>
     </row>
     <row r="76" spans="2:53" x14ac:dyDescent="0.15">
       <c r="T76" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="AO76" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="AQ76" s="14"/>
-      <c r="AR76" s="15"/>
-      <c r="AS76" s="16"/>
-      <c r="AU76" s="4" t="s">
-        <v>102</v>
-      </c>
     </row>
     <row r="78" spans="2:53" x14ac:dyDescent="0.15">
       <c r="T78" s="4" t="s">
@@ -15101,17 +15989,6 @@
       <c r="Y78" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AO78" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="AS78" s="14"/>
-      <c r="AT78" s="15"/>
-      <c r="AU78" s="15"/>
-      <c r="AV78" s="15"/>
-      <c r="AW78" s="15"/>
-      <c r="AX78" s="15"/>
-      <c r="AY78" s="15"/>
-      <c r="AZ78" s="16"/>
     </row>
     <row r="80" spans="2:53" x14ac:dyDescent="0.15">
       <c r="T80" s="33" t="s">
@@ -15130,11 +16007,52 @@
       <c r="AE80" s="33"/>
       <c r="AF80" s="33"/>
     </row>
+    <row r="86" spans="41:53" x14ac:dyDescent="0.15">
+      <c r="AO86" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="AP86" s="33"/>
+      <c r="AQ86" s="33"/>
+      <c r="AR86" s="33"/>
+      <c r="AS86" s="33"/>
+      <c r="AT86" s="33"/>
+      <c r="AU86" s="33"/>
+      <c r="AV86" s="33"/>
+      <c r="AW86" s="33"/>
+      <c r="AX86" s="33"/>
+      <c r="AY86" s="33"/>
+      <c r="AZ86" s="33"/>
+      <c r="BA86" s="33"/>
+    </row>
+    <row r="88" spans="41:53" x14ac:dyDescent="0.15">
+      <c r="AO88" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="AQ88" s="14"/>
+      <c r="AR88" s="15"/>
+      <c r="AS88" s="16"/>
+      <c r="AU88" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="90" spans="41:53" x14ac:dyDescent="0.15">
+      <c r="AO90" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="AS90" s="14"/>
+      <c r="AT90" s="15"/>
+      <c r="AU90" s="15"/>
+      <c r="AV90" s="15"/>
+      <c r="AW90" s="15"/>
+      <c r="AX90" s="15"/>
+      <c r="AY90" s="15"/>
+      <c r="AZ90" s="16"/>
+    </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="T80:AF80"/>
     <mergeCell ref="AO21:BA21"/>
-    <mergeCell ref="AO74:BA74"/>
+    <mergeCell ref="AO86:BA86"/>
     <mergeCell ref="B21:N21"/>
     <mergeCell ref="T21:AF21"/>
     <mergeCell ref="G56:H56"/>
@@ -15412,4 +16330,672 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:N70"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="X42" sqref="X42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="6" width="2.625" style="1"/>
+    <col min="7" max="7" width="2.625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="2.625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:14" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="B2" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B11" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="B12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="38"/>
+    </row>
+    <row r="16" spans="2:14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="42"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="40"/>
+    </row>
+    <row r="17" spans="2:14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="40"/>
+    </row>
+    <row r="18" spans="2:14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="42"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="40"/>
+    </row>
+    <row r="19" spans="2:14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="48">
+        <v>10</v>
+      </c>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="40"/>
+    </row>
+    <row r="20" spans="2:14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="42"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="40"/>
+    </row>
+    <row r="21" spans="2:14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="49"/>
+      <c r="L21" s="49"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="40"/>
+    </row>
+    <row r="22" spans="2:14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="39"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="40"/>
+    </row>
+    <row r="23" spans="2:14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="36"/>
+      <c r="M23" s="36"/>
+      <c r="N23" s="38"/>
+    </row>
+    <row r="24" spans="2:14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="39"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="26"/>
+      <c r="N24" s="40"/>
+    </row>
+    <row r="25" spans="2:14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="26"/>
+      <c r="N25" s="40"/>
+    </row>
+    <row r="26" spans="2:14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="26"/>
+      <c r="N26" s="40"/>
+    </row>
+    <row r="27" spans="2:14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="26"/>
+      <c r="N27" s="40"/>
+    </row>
+    <row r="28" spans="2:14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B28" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="26"/>
+      <c r="M28" s="26"/>
+      <c r="N28" s="40"/>
+    </row>
+    <row r="29" spans="2:14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="44"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="45"/>
+      <c r="I29" s="46"/>
+      <c r="J29" s="45"/>
+      <c r="K29" s="45"/>
+      <c r="L29" s="45"/>
+      <c r="M29" s="45"/>
+      <c r="N29" s="47"/>
+    </row>
+    <row r="30" spans="2:14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="42"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="26"/>
+      <c r="L30" s="26"/>
+      <c r="M30" s="26"/>
+      <c r="N30" s="40"/>
+    </row>
+    <row r="31" spans="2:14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B31" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="H31" s="26"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="26"/>
+      <c r="K31" s="26"/>
+      <c r="L31" s="26"/>
+      <c r="M31" s="26"/>
+      <c r="N31" s="40"/>
+    </row>
+    <row r="32" spans="2:14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B32" s="42"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="26"/>
+      <c r="J32" s="26"/>
+      <c r="K32" s="26"/>
+      <c r="L32" s="26"/>
+      <c r="M32" s="26"/>
+      <c r="N32" s="40"/>
+    </row>
+    <row r="33" spans="2:14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B33" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="H33" s="26"/>
+      <c r="I33" s="26"/>
+      <c r="J33" s="26"/>
+      <c r="K33" s="26"/>
+      <c r="L33" s="26"/>
+      <c r="M33" s="26"/>
+      <c r="N33" s="40"/>
+    </row>
+    <row r="34" spans="2:14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B34" s="42"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="26"/>
+      <c r="K34" s="26"/>
+      <c r="L34" s="26"/>
+      <c r="M34" s="26"/>
+      <c r="N34" s="40"/>
+    </row>
+    <row r="35" spans="2:14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B35" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="26"/>
+      <c r="K35" s="26"/>
+      <c r="L35" s="26"/>
+      <c r="M35" s="26"/>
+      <c r="N35" s="43" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B36" s="42"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="26"/>
+      <c r="I36" s="26"/>
+      <c r="J36" s="26"/>
+      <c r="K36" s="26"/>
+      <c r="L36" s="26"/>
+      <c r="M36" s="26"/>
+      <c r="N36" s="40"/>
+    </row>
+    <row r="37" spans="2:14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B37" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="26"/>
+      <c r="I37" s="26"/>
+      <c r="J37" s="26"/>
+      <c r="K37" s="26"/>
+      <c r="L37" s="26"/>
+      <c r="M37" s="26"/>
+      <c r="N37" s="40"/>
+    </row>
+    <row r="38" spans="2:14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B38" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="26"/>
+      <c r="I38" s="26"/>
+      <c r="J38" s="26"/>
+      <c r="K38" s="26"/>
+      <c r="L38" s="26"/>
+      <c r="M38" s="26"/>
+      <c r="N38" s="40"/>
+    </row>
+    <row r="39" spans="2:14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B39" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39" s="26"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="26"/>
+      <c r="I39" s="26"/>
+      <c r="J39" s="26"/>
+      <c r="K39" s="26"/>
+      <c r="L39" s="26"/>
+      <c r="M39" s="26"/>
+      <c r="N39" s="40"/>
+    </row>
+    <row r="40" spans="2:14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B40" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" s="26"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="26"/>
+      <c r="I40" s="26"/>
+      <c r="J40" s="26"/>
+      <c r="K40" s="26"/>
+      <c r="L40" s="26"/>
+      <c r="M40" s="26"/>
+      <c r="N40" s="40"/>
+    </row>
+    <row r="41" spans="2:14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B41" s="44"/>
+      <c r="C41" s="45"/>
+      <c r="D41" s="45"/>
+      <c r="E41" s="45"/>
+      <c r="F41" s="45"/>
+      <c r="G41" s="45"/>
+      <c r="H41" s="45"/>
+      <c r="I41" s="46"/>
+      <c r="J41" s="45"/>
+      <c r="K41" s="45"/>
+      <c r="L41" s="45"/>
+      <c r="M41" s="45"/>
+      <c r="N41" s="47"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B43" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B44" s="3"/>
+      <c r="I44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B45" s="3"/>
+      <c r="I45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B46" s="3"/>
+      <c r="I46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B47" s="3"/>
+      <c r="I47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B48" s="3"/>
+      <c r="I48" s="3"/>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B49" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C49" s="32"/>
+      <c r="D49" s="32"/>
+      <c r="E49" s="32"/>
+      <c r="F49" s="32"/>
+      <c r="G49" s="32"/>
+      <c r="H49" s="32"/>
+      <c r="I49" s="32"/>
+      <c r="J49" s="32"/>
+      <c r="K49" s="32"/>
+      <c r="L49" s="32"/>
+      <c r="M49" s="32"/>
+      <c r="N49" s="32"/>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B50" s="7"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="8"/>
+      <c r="K50" s="8"/>
+      <c r="L50" s="8"/>
+      <c r="M50" s="8"/>
+      <c r="N50" s="8"/>
+    </row>
+    <row r="52" spans="2:14" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B52" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G52" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H52" s="33"/>
+      <c r="K52" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L52" s="9"/>
+      <c r="M52" s="9"/>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B54" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B56" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B58" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B60" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B61" s="4"/>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B62" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B64" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="N64" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B65" s="4"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B66" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B67" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B68" s="7"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c r="H68" s="8"/>
+      <c r="I68" s="7"/>
+      <c r="J68" s="8"/>
+      <c r="K68" s="8"/>
+      <c r="L68" s="8"/>
+      <c r="M68" s="8"/>
+      <c r="N68" s="8"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B70" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="C70" s="33"/>
+      <c r="D70" s="33"/>
+      <c r="E70" s="33"/>
+      <c r="F70" s="33"/>
+      <c r="G70" s="33"/>
+      <c r="H70" s="33"/>
+      <c r="I70" s="33"/>
+      <c r="J70" s="33"/>
+      <c r="K70" s="33"/>
+      <c r="L70" s="33"/>
+      <c r="M70" s="33"/>
+      <c r="N70" s="33"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="B70:N70"/>
+    <mergeCell ref="B49:N49"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>